--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,24 +40,15 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
+    <t>crude</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -67,118 +58,103 @@
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>hand</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>increase</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -536,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,10 +520,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -605,13 +581,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9090909090909091</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -623,19 +599,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -647,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -655,37 +631,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -705,13 +681,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.76</v>
+        <v>0.5821917808219178</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -723,19 +699,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -747,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -755,13 +731,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7142857142857143</v>
+        <v>0.2151162790697674</v>
       </c>
       <c r="C6">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D6">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -773,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>44</v>
+        <v>405</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,13 +781,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4642857142857143</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -823,19 +799,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -847,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -855,13 +831,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4166666666666667</v>
+        <v>0.1543624161073825</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -873,245 +849,149 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="L8">
+        <v>38</v>
+      </c>
+      <c r="M8">
+        <v>38</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>0.8048780487804879</v>
+      </c>
+      <c r="L9">
+        <v>66</v>
+      </c>
+      <c r="M9">
+        <v>66</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>0.7843137254901961</v>
+      </c>
+      <c r="L10">
+        <v>40</v>
+      </c>
+      <c r="M10">
+        <v>40</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="L11">
+        <v>94</v>
+      </c>
+      <c r="M11">
+        <v>94</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K8">
-        <v>0.875</v>
-      </c>
-      <c r="L8">
-        <v>14</v>
-      </c>
-      <c r="M8">
-        <v>14</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.3476394849785407</v>
-      </c>
-      <c r="C9">
-        <v>81</v>
-      </c>
-      <c r="D9">
-        <v>81</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>152</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9">
-        <v>0.8431372549019608</v>
-      </c>
-      <c r="L9">
-        <v>43</v>
-      </c>
-      <c r="M9">
-        <v>43</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
+      <c r="K12">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L12">
+        <v>28</v>
+      </c>
+      <c r="M12">
+        <v>28</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.3023255813953488</v>
-      </c>
-      <c r="C10">
-        <v>26</v>
-      </c>
-      <c r="D10">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>60</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L10">
-        <v>42</v>
-      </c>
-      <c r="M10">
-        <v>42</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.2375</v>
-      </c>
-      <c r="C11">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <v>19</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>61</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L11">
-        <v>14</v>
-      </c>
-      <c r="M11">
-        <v>14</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1181818181818182</v>
-      </c>
-      <c r="C12">
-        <v>13</v>
-      </c>
-      <c r="D12">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>97</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L12">
-        <v>44</v>
-      </c>
-      <c r="M12">
-        <v>44</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L13">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M13">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1123,21 +1003,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7734375</v>
       </c>
       <c r="L14">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="M14">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1149,47 +1029,47 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7692307692307693</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L15">
+        <v>26</v>
+      </c>
+      <c r="M15">
+        <v>26</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>10</v>
-      </c>
-      <c r="M15">
-        <v>10</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7678571428571429</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L16">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="M16">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1201,21 +1081,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="L17">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="M17">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1227,21 +1107,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.7413793103448276</v>
+        <v>0.6698113207547169</v>
       </c>
       <c r="L18">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="M18">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1253,73 +1133,73 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19">
+        <v>0.6276595744680851</v>
+      </c>
+      <c r="L19">
+        <v>59</v>
+      </c>
+      <c r="M19">
+        <v>59</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>35</v>
-      </c>
-      <c r="K19">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L19">
-        <v>27</v>
-      </c>
-      <c r="M19">
-        <v>27</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>12</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6923076923076923</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L20">
+        <v>29</v>
+      </c>
+      <c r="M20">
+        <v>29</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>18</v>
-      </c>
-      <c r="M20">
-        <v>18</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>8</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.684931506849315</v>
+        <v>0.6</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1331,21 +1211,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.68</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1357,21 +1237,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.6060606060606061</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1383,21 +1263,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5882352941176471</v>
+        <v>0.5195822454308094</v>
       </c>
       <c r="L24">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="M24">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1409,21 +1289,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5600000000000001</v>
+        <v>0.4764705882352941</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1435,21 +1315,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5416666666666666</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L26">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="M26">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1461,21 +1341,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5416666666666666</v>
+        <v>0.4203389830508474</v>
       </c>
       <c r="L27">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="M27">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1487,21 +1367,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5333333333333333</v>
+        <v>0.3556485355648535</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1513,21 +1393,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.5263157894736842</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L29">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1539,21 +1419,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.5211267605633803</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="L30">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1565,21 +1445,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>102</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.03691275167785235</v>
       </c>
       <c r="L31">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="M31">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1591,21 +1471,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>861</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.4961240310077519</v>
+        <v>0.02219755826859045</v>
       </c>
       <c r="L32">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="M32">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1617,163 +1497,59 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>65</v>
+        <v>881</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.4857142857142857</v>
+        <v>0.01260504201680672</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>18</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.4642857142857143</v>
+        <v>0.009342783505154639</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17">
-      <c r="J35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K35">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="L35">
-        <v>34</v>
-      </c>
-      <c r="M35">
-        <v>34</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K36">
-        <v>0.3125</v>
-      </c>
-      <c r="L36">
-        <v>10</v>
-      </c>
-      <c r="M36">
-        <v>10</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K37">
-        <v>0.04390243902439024</v>
-      </c>
-      <c r="L37">
-        <v>18</v>
-      </c>
-      <c r="M37">
-        <v>18</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K38">
-        <v>0.03286384976525822</v>
-      </c>
-      <c r="L38">
-        <v>14</v>
-      </c>
-      <c r="M38">
-        <v>14</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>412</v>
+        <v>3075</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,31 +43,37 @@
     <t>crude</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>love</t>
   </si>
   <si>
     <t>nice</t>
@@ -76,70 +82,79 @@
     <t>great</t>
   </si>
   <si>
-    <t>love</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>protect</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>protect</t>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
@@ -512,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,10 +535,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -602,16 +617,16 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -623,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -631,13 +646,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6111111111111112</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -649,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -673,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -681,13 +696,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5821917808219178</v>
+        <v>0.6198630136986302</v>
       </c>
       <c r="C5">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="D5">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -699,19 +714,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -731,13 +746,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2151162790697674</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C6">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -749,19 +764,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>405</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.8518518518518519</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -773,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -781,13 +796,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2063492063492063</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C7">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -799,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -823,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -831,13 +846,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1543624161073825</v>
+        <v>0.2169312169312169</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -849,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8260869565217391</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -873,21 +888,45 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.2015503875968992</v>
+      </c>
+      <c r="C9">
+        <v>104</v>
+      </c>
+      <c r="D9">
+        <v>104</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>412</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9">
-        <v>0.8048780487804879</v>
+        <v>0.8046875</v>
       </c>
       <c r="L9">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="M9">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -899,21 +938,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K10">
-        <v>0.7843137254901961</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L10">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -925,21 +964,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>0.7833333333333333</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L11">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="M11">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -951,47 +990,47 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L12">
+        <v>92</v>
+      </c>
+      <c r="M12">
+        <v>92</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>28</v>
-      </c>
-      <c r="M12">
-        <v>28</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7758620689655172</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1003,21 +1042,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.7734375</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L14">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="M14">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1029,21 +1068,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7222222222222222</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L15">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="M15">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1055,21 +1094,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.704225352112676</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="M16">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1081,21 +1120,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.7</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L17">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1107,21 +1146,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18">
+        <v>0.6382978723404256</v>
+      </c>
+      <c r="L18">
         <v>30</v>
       </c>
-      <c r="K18">
-        <v>0.6698113207547169</v>
-      </c>
-      <c r="L18">
-        <v>71</v>
-      </c>
       <c r="M18">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1133,21 +1172,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6276595744680851</v>
+        <v>0.6375</v>
       </c>
       <c r="L19">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="M19">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1159,21 +1198,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6170212765957447</v>
+        <v>0.62</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1185,21 +1224,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6</v>
+        <v>0.5535248041775457</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1211,21 +1250,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.5714285714285714</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L22">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="M22">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1237,21 +1276,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.5208333333333334</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1263,21 +1302,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5195822454308094</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L24">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1289,21 +1328,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>184</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.4764705882352941</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L25">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1315,21 +1354,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>178</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.449438202247191</v>
+        <v>0.5</v>
       </c>
       <c r="L26">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M26">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1341,21 +1380,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.4203389830508474</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L27">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="M27">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1367,21 +1406,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>171</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.3556485355648535</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L28">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1393,21 +1432,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.3013698630136986</v>
+        <v>0.4711864406779661</v>
       </c>
       <c r="L29">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="M29">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1419,21 +1458,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>51</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.2692307692307692</v>
+        <v>0.4676470588235294</v>
       </c>
       <c r="L30">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="M30">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1445,21 +1484,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>57</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.03691275167785235</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L31">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1471,21 +1510,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>861</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.02219755826859045</v>
+        <v>0.3765690376569037</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1497,58 +1536,162 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>881</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.01260504201680672</v>
+        <v>0.328125</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N33">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>2115</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34">
+        <v>0.3205128205128205</v>
+      </c>
+      <c r="L34">
+        <v>25</v>
+      </c>
+      <c r="M34">
+        <v>25</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35">
+        <v>0.04809843400447427</v>
+      </c>
+      <c r="L35">
+        <v>43</v>
+      </c>
+      <c r="M35">
+        <v>43</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36">
+        <v>0.03551609322974473</v>
+      </c>
+      <c r="L36">
+        <v>32</v>
+      </c>
+      <c r="M36">
+        <v>32</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K37">
+        <v>0.01027557216254087</v>
+      </c>
+      <c r="L37">
+        <v>22</v>
+      </c>
+      <c r="M37">
+        <v>24</v>
+      </c>
+      <c r="N37">
+        <v>0.92</v>
+      </c>
+      <c r="O37">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K38">
         <v>0.009342783505154639</v>
       </c>
-      <c r="L34">
+      <c r="L38">
         <v>29</v>
       </c>
-      <c r="M34">
+      <c r="M38">
         <v>32</v>
       </c>
-      <c r="N34">
+      <c r="N38">
         <v>0.91</v>
       </c>
-      <c r="O34">
+      <c r="O38">
         <v>0.08999999999999997</v>
       </c>
-      <c r="P34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34">
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
         <v>3075</v>
       </c>
     </row>
